--- a/201708044207XPJ/工作完成表.xlsx
+++ b/201708044207XPJ/工作完成表.xlsx
@@ -19,39 +19,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+  <si>
+    <t>星期一</t>
+  </si>
+  <si>
+    <t>星期二</t>
+  </si>
+  <si>
+    <t>星期三</t>
+  </si>
+  <si>
+    <t>星期四</t>
+  </si>
+  <si>
+    <t>星期五</t>
+  </si>
+  <si>
+    <t>星期六</t>
+  </si>
+  <si>
+    <t>星期日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18:00-20:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习spring中在context下使用注解创建注入spring容器中的对象以及作用范围和生命周期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>第六周 2019-4-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>星期一</t>
-  </si>
-  <si>
-    <t>星期二</t>
-  </si>
-  <si>
-    <t>星期三</t>
-  </si>
-  <si>
-    <t>星期四</t>
-  </si>
-  <si>
-    <t>星期五</t>
-  </si>
-  <si>
-    <t>星期六</t>
-  </si>
-  <si>
-    <t>星期日</t>
+    <t>了解程序间的耦合</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>18:00-20:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学习spring中在context下使用注解创建注入spring容器中的对象以及作用范围和生命周期</t>
+    <t>学习spring中的IOC解耦和DI注入</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -386,14 +394,14 @@
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:Q5"/>
+      <selection activeCell="D3" sqref="D3:Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -410,14 +418,19 @@
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -434,11 +447,15 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -455,14 +472,14 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -480,7 +497,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -501,7 +518,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -522,7 +539,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -543,7 +560,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -564,6 +581,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D2:Q2"/>
+    <mergeCell ref="D3:Q3"/>
+    <mergeCell ref="A1:Q1"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="D4:Q4"/>
@@ -571,14 +595,7 @@
     <mergeCell ref="D6:Q6"/>
     <mergeCell ref="D7:Q7"/>
     <mergeCell ref="D8:Q8"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D2:Q2"/>
-    <mergeCell ref="D3:Q3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/201708044207XPJ/工作完成表.xlsx
+++ b/201708044207XPJ/工作完成表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>星期一</t>
   </si>
@@ -60,6 +60,10 @@
   </si>
   <si>
     <t>学习spring中的IOC解耦和DI注入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:00-15:40</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -394,7 +398,7 @@
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:Q3"/>
+      <selection activeCell="B5" sqref="B5:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -499,7 +503,9 @@
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -581,12 +587,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D2:Q2"/>
-    <mergeCell ref="D3:Q3"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
@@ -596,6 +596,12 @@
     <mergeCell ref="D7:Q7"/>
     <mergeCell ref="D8:Q8"/>
     <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D2:Q2"/>
+    <mergeCell ref="D3:Q3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/201708044207XPJ/工作完成表.xlsx
+++ b/201708044207XPJ/工作完成表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>星期一</t>
   </si>
@@ -64,6 +64,10 @@
   </si>
   <si>
     <t>14:00-15:40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>样例</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -398,7 +402,7 @@
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:C5"/>
+      <selection activeCell="D5" sqref="D5:Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -507,7 +511,9 @@
         <v>12</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>

--- a/201708044207XPJ/工作完成表.xlsx
+++ b/201708044207XPJ/工作完成表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t>星期一</t>
   </si>
@@ -68,6 +68,18 @@
   </si>
   <si>
     <t>样例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第七周 2019-4-9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:30-12:00 13:00-15:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpringIOC和DI样例</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -111,8 +123,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -399,200 +414,387 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q8"/>
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:Q5"/>
+      <selection activeCell="D13" sqref="D13:Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2" t="s">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2" t="s">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2" t="s">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="30">
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:Q15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:Q16"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:Q12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:Q13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:Q14"/>
+    <mergeCell ref="A9:Q9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:Q10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:Q11"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>

--- a/201708044207XPJ/工作完成表.xlsx
+++ b/201708044207XPJ/工作完成表.xlsx
@@ -79,7 +79,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SpringIOC和DI样例</t>
+    <t>SpringIOC和DI样例&amp;mysql远程读取</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -417,7 +417,7 @@
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13:Q13"/>
+      <selection activeCell="D11" sqref="D11:Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -780,21 +780,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:Q15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:Q16"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:Q12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:Q13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:Q14"/>
-    <mergeCell ref="A9:Q9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:Q10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:Q11"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
@@ -810,6 +795,21 @@
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D2:Q2"/>
     <mergeCell ref="D3:Q3"/>
+    <mergeCell ref="A9:Q9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:Q10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:Q11"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:Q15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:Q16"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:Q12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:Q13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:Q14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/201708044207XPJ/工作完成表.xlsx
+++ b/201708044207XPJ/工作完成表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
   <si>
     <t>星期一</t>
   </si>
@@ -80,6 +80,14 @@
   </si>
   <si>
     <t>SpringIOC和DI样例&amp;mysql远程读取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18：00-21:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成实体概念及其关系和初步使用JPA Annotation注解</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -677,9 +685,13 @@
       <c r="A12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+      <c r="D12" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -780,6 +792,21 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:Q15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:Q16"/>
+    <mergeCell ref="D12:Q12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:Q13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:Q14"/>
+    <mergeCell ref="A9:Q9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:Q10"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D11:Q11"/>
+    <mergeCell ref="B11:C11"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
@@ -795,21 +822,6 @@
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D2:Q2"/>
     <mergeCell ref="D3:Q3"/>
-    <mergeCell ref="A9:Q9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:Q10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:Q11"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:Q15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:Q16"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:Q12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:Q13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:Q14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/201708044207XPJ/工作完成表.xlsx
+++ b/201708044207XPJ/工作完成表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
   <si>
     <t>星期一</t>
   </si>
@@ -88,6 +88,14 @@
   </si>
   <si>
     <t>完成实体概念及其关系和初步使用JPA Annotation注解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16:30-21:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尝试使用Hibernate，出现问题较多，有待学习、更改</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -425,7 +433,7 @@
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:Q11"/>
+      <selection activeCell="D14" sqref="D14:Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -710,9 +718,13 @@
       <c r="A13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+      <c r="D13" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -792,21 +804,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:Q15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:Q16"/>
-    <mergeCell ref="D12:Q12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:Q13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:Q14"/>
-    <mergeCell ref="A9:Q9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:Q10"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D11:Q11"/>
-    <mergeCell ref="B11:C11"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
@@ -822,6 +819,21 @@
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D2:Q2"/>
     <mergeCell ref="D3:Q3"/>
+    <mergeCell ref="A9:Q9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:Q10"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D11:Q11"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:Q15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:Q16"/>
+    <mergeCell ref="D12:Q12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:Q13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:Q14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/201708044207XPJ/工作完成表.xlsx
+++ b/201708044207XPJ/工作完成表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
   <si>
     <t>星期一</t>
   </si>
@@ -96,6 +96,14 @@
   </si>
   <si>
     <t>尝试使用Hibernate，出现问题较多，有待学习、更改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:30-15:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hibernate第二天</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -433,7 +441,7 @@
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:Q14"/>
+      <selection activeCell="D16" sqref="D16:Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -764,9 +772,13 @@
       <c r="A15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+      <c r="D15" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -804,6 +816,21 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:Q15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:Q16"/>
+    <mergeCell ref="D12:Q12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:Q13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:Q14"/>
+    <mergeCell ref="A9:Q9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:Q10"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D11:Q11"/>
+    <mergeCell ref="B11:C11"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
@@ -819,21 +846,6 @@
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D2:Q2"/>
     <mergeCell ref="D3:Q3"/>
-    <mergeCell ref="A9:Q9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:Q10"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D11:Q11"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:Q15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:Q16"/>
-    <mergeCell ref="D12:Q12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:Q13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:Q14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/201708044207XPJ/工作完成表.xlsx
+++ b/201708044207XPJ/工作完成表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
   <si>
     <t>星期一</t>
   </si>
@@ -104,6 +104,14 @@
   </si>
   <si>
     <t>Hibernate第二天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:00-10:30 14:30-18:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hibernate实现CRUD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -441,7 +449,7 @@
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16:Q16"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -797,9 +805,13 @@
       <c r="A16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
+      <c r="D16" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -816,21 +828,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:Q15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:Q16"/>
-    <mergeCell ref="D12:Q12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:Q13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:Q14"/>
-    <mergeCell ref="A9:Q9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:Q10"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D11:Q11"/>
-    <mergeCell ref="B11:C11"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
@@ -846,6 +843,21 @@
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D2:Q2"/>
     <mergeCell ref="D3:Q3"/>
+    <mergeCell ref="A9:Q9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:Q10"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D11:Q11"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:Q15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:Q16"/>
+    <mergeCell ref="D12:Q12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:Q13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:Q14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/201708044207XPJ/工作完成表.xlsx
+++ b/201708044207XPJ/工作完成表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>星期一</t>
   </si>
@@ -112,6 +112,18 @@
   </si>
   <si>
     <t>Hibernate实现CRUD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第八周2019-4-15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:30-17:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习Hibernate的配置问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -155,8 +167,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -446,388 +461,590 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q16"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="D12" sqref="D12:Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3" t="s">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3" t="s">
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3" t="s">
+      <c r="C10" s="4"/>
+      <c r="D10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3" t="s">
+      <c r="C12" s="4"/>
+      <c r="D12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3" t="s">
+      <c r="C13" s="4"/>
+      <c r="D13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3" t="s">
+      <c r="C15" s="4"/>
+      <c r="D15" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3" t="s">
+      <c r="C16" s="4"/>
+      <c r="D16" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="45">
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D18:Q18"/>
+    <mergeCell ref="D19:Q19"/>
+    <mergeCell ref="D20:Q20"/>
+    <mergeCell ref="D21:Q21"/>
+    <mergeCell ref="D22:Q22"/>
+    <mergeCell ref="D23:Q23"/>
+    <mergeCell ref="D24:Q24"/>
+    <mergeCell ref="A17:Q17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:Q15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:Q16"/>
+    <mergeCell ref="D12:Q12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:Q13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:Q14"/>
+    <mergeCell ref="A9:Q9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:Q10"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D11:Q11"/>
+    <mergeCell ref="B11:C11"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
@@ -843,21 +1060,6 @@
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D2:Q2"/>
     <mergeCell ref="D3:Q3"/>
-    <mergeCell ref="A9:Q9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:Q10"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D11:Q11"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:Q15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:Q16"/>
-    <mergeCell ref="D12:Q12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:Q13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:Q14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/201708044207XPJ/工作完成表.xlsx
+++ b/201708044207XPJ/工作完成表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="31">
   <si>
     <t>星期一</t>
   </si>
@@ -124,6 +124,18 @@
   </si>
   <si>
     <t>学习Hibernate的配置问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第九周2019-4-22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:20-17:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习数据库的事务</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -167,8 +179,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -461,590 +476,747 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q24"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:Q12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27:Q27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
+      <c r="C4" s="5"/>
+      <c r="D4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
+      <c r="C5" s="5"/>
+      <c r="D5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4" t="s">
+      <c r="C10" s="5"/>
+      <c r="D10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4" t="s">
+      <c r="C12" s="5"/>
+      <c r="D12" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4" t="s">
+      <c r="C13" s="5"/>
+      <c r="D13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4" t="s">
+      <c r="C15" s="5"/>
+      <c r="D15" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4" t="s">
+      <c r="C16" s="5"/>
+      <c r="D16" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4" t="s">
+      <c r="C18" s="5"/>
+      <c r="D18" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="45">
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D18:Q18"/>
-    <mergeCell ref="D19:Q19"/>
-    <mergeCell ref="D20:Q20"/>
-    <mergeCell ref="D21:Q21"/>
-    <mergeCell ref="D22:Q22"/>
-    <mergeCell ref="D23:Q23"/>
-    <mergeCell ref="D24:Q24"/>
-    <mergeCell ref="A17:Q17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:Q15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:Q16"/>
-    <mergeCell ref="D12:Q12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:Q13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:Q14"/>
-    <mergeCell ref="A9:Q9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:Q10"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D11:Q11"/>
-    <mergeCell ref="B11:C11"/>
+  <mergeCells count="60">
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:Q31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:Q32"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:Q28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:Q29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:Q30"/>
+    <mergeCell ref="A25:Q25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:Q26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:Q27"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
@@ -1060,6 +1232,36 @@
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D2:Q2"/>
     <mergeCell ref="D3:Q3"/>
+    <mergeCell ref="A9:Q9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:Q10"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D11:Q11"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:Q15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:Q16"/>
+    <mergeCell ref="D12:Q12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:Q13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:Q14"/>
+    <mergeCell ref="A17:Q17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D18:Q18"/>
+    <mergeCell ref="D19:Q19"/>
+    <mergeCell ref="D20:Q20"/>
+    <mergeCell ref="D21:Q21"/>
+    <mergeCell ref="D22:Q22"/>
+    <mergeCell ref="D23:Q23"/>
+    <mergeCell ref="D24:Q24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/201708044207XPJ/工作完成表.xlsx
+++ b/201708044207XPJ/工作完成表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
   <si>
     <t>星期一</t>
   </si>
@@ -136,6 +136,22 @@
   </si>
   <si>
     <t>学习数据库的事务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:00-18:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课堂演示-创建表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22:00-24:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置文件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -478,8 +494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27:Q27"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29:Q29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1078,9 +1094,13 @@
       <c r="A27" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="5"/>
+      <c r="B27" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
+      <c r="D27" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
@@ -1099,9 +1119,13 @@
       <c r="A28" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B28" s="5"/>
+      <c r="B28" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
+      <c r="D28" s="5" t="s">
+        <v>34</v>
+      </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
@@ -1202,21 +1226,36 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:Q31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:Q32"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:Q28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:Q29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:Q30"/>
-    <mergeCell ref="A25:Q25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:Q26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:Q27"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D18:Q18"/>
+    <mergeCell ref="D19:Q19"/>
+    <mergeCell ref="D20:Q20"/>
+    <mergeCell ref="D21:Q21"/>
+    <mergeCell ref="D22:Q22"/>
+    <mergeCell ref="D23:Q23"/>
+    <mergeCell ref="D24:Q24"/>
+    <mergeCell ref="A17:Q17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:Q15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:Q16"/>
+    <mergeCell ref="D12:Q12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:Q13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:Q14"/>
+    <mergeCell ref="A9:Q9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:Q10"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D11:Q11"/>
+    <mergeCell ref="B11:C11"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
@@ -1232,36 +1271,21 @@
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D2:Q2"/>
     <mergeCell ref="D3:Q3"/>
-    <mergeCell ref="A9:Q9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:Q10"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D11:Q11"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:Q15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:Q16"/>
-    <mergeCell ref="D12:Q12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:Q13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:Q14"/>
-    <mergeCell ref="A17:Q17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D18:Q18"/>
-    <mergeCell ref="D19:Q19"/>
-    <mergeCell ref="D20:Q20"/>
-    <mergeCell ref="D21:Q21"/>
-    <mergeCell ref="D22:Q22"/>
-    <mergeCell ref="D23:Q23"/>
-    <mergeCell ref="D24:Q24"/>
+    <mergeCell ref="A25:Q25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:Q26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:Q27"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:Q31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:Q32"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:Q28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:Q29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:Q30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/201708044207XPJ/工作完成表.xlsx
+++ b/201708044207XPJ/工作完成表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="37">
   <si>
     <t>星期一</t>
   </si>
@@ -152,6 +152,14 @@
   </si>
   <si>
     <t>配置文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:00-13:00&amp;14:30-18:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决pom文件的配置错误&amp;学习上级实验</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -494,8 +502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29:Q29"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32:Q32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1186,9 +1194,13 @@
       <c r="A31" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="5"/>
+      <c r="B31" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
+      <c r="D31" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
@@ -1226,36 +1238,21 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D18:Q18"/>
-    <mergeCell ref="D19:Q19"/>
-    <mergeCell ref="D20:Q20"/>
-    <mergeCell ref="D21:Q21"/>
-    <mergeCell ref="D22:Q22"/>
-    <mergeCell ref="D23:Q23"/>
-    <mergeCell ref="D24:Q24"/>
-    <mergeCell ref="A17:Q17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:Q15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:Q16"/>
-    <mergeCell ref="D12:Q12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:Q13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:Q14"/>
-    <mergeCell ref="A9:Q9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:Q10"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D11:Q11"/>
-    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:Q31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:Q32"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:Q28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:Q29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:Q30"/>
+    <mergeCell ref="A25:Q25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:Q26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:Q27"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
@@ -1271,21 +1268,36 @@
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D2:Q2"/>
     <mergeCell ref="D3:Q3"/>
-    <mergeCell ref="A25:Q25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:Q26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:Q27"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:Q31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:Q32"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:Q28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:Q29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:Q30"/>
+    <mergeCell ref="A9:Q9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:Q10"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D11:Q11"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:Q15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:Q16"/>
+    <mergeCell ref="D12:Q12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:Q13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:Q14"/>
+    <mergeCell ref="A17:Q17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D18:Q18"/>
+    <mergeCell ref="D19:Q19"/>
+    <mergeCell ref="D20:Q20"/>
+    <mergeCell ref="D21:Q21"/>
+    <mergeCell ref="D22:Q22"/>
+    <mergeCell ref="D23:Q23"/>
+    <mergeCell ref="D24:Q24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/201708044207XPJ/工作完成表.xlsx
+++ b/201708044207XPJ/工作完成表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="42">
   <si>
     <t>星期一</t>
   </si>
@@ -160,6 +160,26 @@
   </si>
   <si>
     <t>解决pom文件的配置错误&amp;学习上级实验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:00-12:00&amp;12:30-15:10&amp;16:00-20:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>构建自己的实体/学习Spring事务管理/LocalThred的使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第十周2019-4-29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16:00-18:00&amp;19:00-21:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>构建自己的实体/配置文件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -203,8 +223,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -500,744 +523,935 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q32"/>
+  <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32:Q32"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38:Q38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5" t="s">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5" t="s">
+      <c r="C4" s="6"/>
+      <c r="D4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5" t="s">
+      <c r="C5" s="6"/>
+      <c r="D5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5" t="s">
+      <c r="C10" s="6"/>
+      <c r="D10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5" t="s">
+      <c r="C12" s="6"/>
+      <c r="D12" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5" t="s">
+      <c r="C13" s="6"/>
+      <c r="D13" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5" t="s">
+      <c r="C15" s="6"/>
+      <c r="D15" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5" t="s">
+      <c r="C16" s="6"/>
+      <c r="D16" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5" t="s">
+      <c r="C18" s="6"/>
+      <c r="D18" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5" t="s">
+      <c r="C26" s="6"/>
+      <c r="D26" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="5"/>
-      <c r="Q26" s="5"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5" t="s">
+      <c r="C27" s="6"/>
+      <c r="D27" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="5"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5" t="s">
+      <c r="C28" s="6"/>
+      <c r="D28" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="5"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="5"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="5"/>
-      <c r="P30" s="5"/>
-      <c r="Q30" s="5"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5" t="s">
+      <c r="C31" s="6"/>
+      <c r="D31" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="5"/>
-      <c r="P31" s="5"/>
-      <c r="Q31" s="5"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="5"/>
-      <c r="O32" s="5"/>
-      <c r="P32" s="5"/>
-      <c r="Q32" s="5"/>
+      <c r="B32" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="6"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="6"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="6"/>
+      <c r="Q34" s="6"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="6"/>
+      <c r="Q35" s="6"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="6"/>
+      <c r="Q36" s="6"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A37" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="6"/>
+      <c r="P37" s="6"/>
+      <c r="Q37" s="6"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="6"/>
+      <c r="P38" s="6"/>
+      <c r="Q38" s="6"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A39" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="6"/>
+      <c r="Q39" s="6"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A40" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="6"/>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="60">
+  <mergeCells count="75">
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:Q39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:Q40"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:Q36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:Q37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:Q38"/>
+    <mergeCell ref="A33:Q33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:Q34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:Q35"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="D31:Q31"/>
     <mergeCell ref="B32:C32"/>

--- a/201708044207XPJ/工作完成表.xlsx
+++ b/201708044207XPJ/工作完成表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="45">
   <si>
     <t>星期一</t>
   </si>
@@ -180,6 +180,18 @@
   </si>
   <si>
     <t>构建自己的实体/配置文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第十一周2019-5-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:00-16:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OSALS实体构建成功，测试类运行正常</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -223,8 +235,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -523,950 +538,1137 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q40"/>
+  <dimension ref="A1:Q48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38:Q38"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44:Q44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6" t="s">
+      <c r="C2" s="7"/>
+      <c r="D2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6" t="s">
+      <c r="C3" s="7"/>
+      <c r="D3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6" t="s">
+      <c r="C4" s="7"/>
+      <c r="D4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6" t="s">
+      <c r="C5" s="7"/>
+      <c r="D5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6" t="s">
+      <c r="C10" s="7"/>
+      <c r="D10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6" t="s">
+      <c r="C12" s="7"/>
+      <c r="D12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6" t="s">
+      <c r="C13" s="7"/>
+      <c r="D13" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6" t="s">
+      <c r="C15" s="7"/>
+      <c r="D15" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6" t="s">
+      <c r="C16" s="7"/>
+      <c r="D16" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6" t="s">
+      <c r="C18" s="7"/>
+      <c r="D18" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="6"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="6"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="6"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="6"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6" t="s">
+      <c r="C26" s="7"/>
+      <c r="D26" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="6"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6" t="s">
+      <c r="C27" s="7"/>
+      <c r="D27" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
-      <c r="P27" s="6"/>
-      <c r="Q27" s="6"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6" t="s">
+      <c r="C28" s="7"/>
+      <c r="D28" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
-      <c r="P28" s="6"/>
-      <c r="Q28" s="6"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
-      <c r="N29" s="6"/>
-      <c r="O29" s="6"/>
-      <c r="P29" s="6"/>
-      <c r="Q29" s="6"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="7"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="6"/>
-      <c r="O30" s="6"/>
-      <c r="P30" s="6"/>
-      <c r="Q30" s="6"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="7"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6" t="s">
+      <c r="C31" s="7"/>
+      <c r="D31" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="6"/>
-      <c r="P31" s="6"/>
-      <c r="Q31" s="6"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6" t="s">
+      <c r="C32" s="7"/>
+      <c r="D32" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
-      <c r="N32" s="6"/>
-      <c r="O32" s="6"/>
-      <c r="P32" s="6"/>
-      <c r="Q32" s="6"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
-      <c r="N33" s="6"/>
-      <c r="O33" s="6"/>
-      <c r="P33" s="6"/>
-      <c r="Q33" s="6"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="7"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="6"/>
-      <c r="N34" s="6"/>
-      <c r="O34" s="6"/>
-      <c r="P34" s="6"/>
-      <c r="Q34" s="6"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
-      <c r="N35" s="6"/>
-      <c r="O35" s="6"/>
-      <c r="P35" s="6"/>
-      <c r="Q35" s="6"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="7"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="6"/>
-      <c r="M36" s="6"/>
-      <c r="N36" s="6"/>
-      <c r="O36" s="6"/>
-      <c r="P36" s="6"/>
-      <c r="Q36" s="6"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="7"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="6"/>
-      <c r="M37" s="6"/>
-      <c r="N37" s="6"/>
-      <c r="O37" s="6"/>
-      <c r="P37" s="6"/>
-      <c r="Q37" s="6"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
+      <c r="P37" s="7"/>
+      <c r="Q37" s="7"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="6"/>
-      <c r="N38" s="6"/>
-      <c r="O38" s="6"/>
-      <c r="P38" s="6"/>
-      <c r="Q38" s="6"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="7"/>
+      <c r="Q38" s="7"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
-      <c r="L39" s="6"/>
-      <c r="M39" s="6"/>
-      <c r="N39" s="6"/>
-      <c r="O39" s="6"/>
-      <c r="P39" s="6"/>
-      <c r="Q39" s="6"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="7"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6" t="s">
+      <c r="C40" s="7"/>
+      <c r="D40" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
-      <c r="K40" s="6"/>
-      <c r="L40" s="6"/>
-      <c r="M40" s="6"/>
-      <c r="N40" s="6"/>
-      <c r="O40" s="6"/>
-      <c r="P40" s="6"/>
-      <c r="Q40" s="6"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7"/>
+      <c r="O40" s="7"/>
+      <c r="P40" s="7"/>
+      <c r="Q40" s="7"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A41" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="7"/>
+      <c r="P41" s="7"/>
+      <c r="Q41" s="7"/>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A42" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="7"/>
+      <c r="O42" s="7"/>
+      <c r="P42" s="7"/>
+      <c r="Q42" s="7"/>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A43" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="7"/>
+      <c r="P43" s="7"/>
+      <c r="Q43" s="7"/>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A44" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="7"/>
+      <c r="O44" s="7"/>
+      <c r="P44" s="7"/>
+      <c r="Q44" s="7"/>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A45" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="7"/>
+      <c r="O45" s="7"/>
+      <c r="P45" s="7"/>
+      <c r="Q45" s="7"/>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A46" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
+      <c r="M46" s="7"/>
+      <c r="N46" s="7"/>
+      <c r="O46" s="7"/>
+      <c r="P46" s="7"/>
+      <c r="Q46" s="7"/>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A47" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7"/>
+      <c r="O47" s="7"/>
+      <c r="P47" s="7"/>
+      <c r="Q47" s="7"/>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A48" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7"/>
+      <c r="M48" s="7"/>
+      <c r="N48" s="7"/>
+      <c r="O48" s="7"/>
+      <c r="P48" s="7"/>
+      <c r="Q48" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="75">
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:Q39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:Q40"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:Q36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:Q37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:Q38"/>
-    <mergeCell ref="A33:Q33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:Q34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:Q35"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:Q31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:Q32"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:Q28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:Q29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:Q30"/>
-    <mergeCell ref="A25:Q25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:Q26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:Q27"/>
+  <mergeCells count="90">
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:Q47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:Q48"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:Q44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:Q45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:Q46"/>
+    <mergeCell ref="A41:Q41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:Q42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:Q43"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D18:Q18"/>
+    <mergeCell ref="D19:Q19"/>
+    <mergeCell ref="D20:Q20"/>
+    <mergeCell ref="D21:Q21"/>
+    <mergeCell ref="D22:Q22"/>
+    <mergeCell ref="D23:Q23"/>
+    <mergeCell ref="D24:Q24"/>
+    <mergeCell ref="A17:Q17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:Q15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:Q16"/>
+    <mergeCell ref="D12:Q12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:Q13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:Q14"/>
+    <mergeCell ref="A9:Q9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:Q10"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D11:Q11"/>
+    <mergeCell ref="B11:C11"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
@@ -1482,36 +1684,36 @@
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D2:Q2"/>
     <mergeCell ref="D3:Q3"/>
-    <mergeCell ref="A9:Q9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:Q10"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D11:Q11"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:Q15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:Q16"/>
-    <mergeCell ref="D12:Q12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:Q13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:Q14"/>
-    <mergeCell ref="A17:Q17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D18:Q18"/>
-    <mergeCell ref="D19:Q19"/>
-    <mergeCell ref="D20:Q20"/>
-    <mergeCell ref="D21:Q21"/>
-    <mergeCell ref="D22:Q22"/>
-    <mergeCell ref="D23:Q23"/>
-    <mergeCell ref="D24:Q24"/>
+    <mergeCell ref="A25:Q25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:Q26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:Q27"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:Q31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:Q32"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:Q28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:Q29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:Q30"/>
+    <mergeCell ref="A33:Q33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:Q34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:Q35"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:Q39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:Q40"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:Q36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:Q37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:Q38"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/201708044207XPJ/工作完成表.xlsx
+++ b/201708044207XPJ/工作完成表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="47">
   <si>
     <t>星期一</t>
   </si>
@@ -192,6 +192,14 @@
   </si>
   <si>
     <t>OSALS实体构建成功，测试类运行正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:30-12:00&amp;14:00-17:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浅了解Spring Data JPA/了解上机实验知识点（代码有注释）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -541,7 +549,7 @@
   <dimension ref="A1:Q48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44:Q44"/>
+      <selection activeCell="D32" sqref="D32:Q32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1500,9 +1508,13 @@
       <c r="A43" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B43" s="7"/>
+      <c r="B43" s="7" t="s">
+        <v>45</v>
+      </c>
       <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
+      <c r="D43" s="7" t="s">
+        <v>46</v>
+      </c>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
@@ -1624,51 +1636,36 @@
     </row>
   </sheetData>
   <mergeCells count="90">
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:Q47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:Q48"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:Q44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:Q45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:Q46"/>
-    <mergeCell ref="A41:Q41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:Q42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:Q43"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D18:Q18"/>
-    <mergeCell ref="D19:Q19"/>
-    <mergeCell ref="D20:Q20"/>
-    <mergeCell ref="D21:Q21"/>
-    <mergeCell ref="D22:Q22"/>
-    <mergeCell ref="D23:Q23"/>
-    <mergeCell ref="D24:Q24"/>
-    <mergeCell ref="A17:Q17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:Q15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:Q16"/>
-    <mergeCell ref="D12:Q12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:Q13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:Q14"/>
-    <mergeCell ref="A9:Q9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:Q10"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D11:Q11"/>
-    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:Q39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:Q40"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:Q36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:Q37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:Q38"/>
+    <mergeCell ref="A33:Q33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:Q34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:Q35"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:Q31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:Q32"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:Q28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:Q29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:Q30"/>
+    <mergeCell ref="A25:Q25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:Q26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:Q27"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
@@ -1684,36 +1681,51 @@
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D2:Q2"/>
     <mergeCell ref="D3:Q3"/>
-    <mergeCell ref="A25:Q25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:Q26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:Q27"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:Q31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:Q32"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:Q28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:Q29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:Q30"/>
-    <mergeCell ref="A33:Q33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:Q34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:Q35"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:Q39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:Q40"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:Q36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:Q37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:Q38"/>
+    <mergeCell ref="A9:Q9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:Q10"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D11:Q11"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:Q15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:Q16"/>
+    <mergeCell ref="D12:Q12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:Q13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:Q14"/>
+    <mergeCell ref="A17:Q17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D18:Q18"/>
+    <mergeCell ref="D19:Q19"/>
+    <mergeCell ref="D20:Q20"/>
+    <mergeCell ref="D21:Q21"/>
+    <mergeCell ref="D22:Q22"/>
+    <mergeCell ref="D23:Q23"/>
+    <mergeCell ref="D24:Q24"/>
+    <mergeCell ref="A41:Q41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:Q42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:Q43"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:Q47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:Q48"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:Q44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:Q45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:Q46"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/201708044207XPJ/工作完成表.xlsx
+++ b/201708044207XPJ/工作完成表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="49">
   <si>
     <t>星期一</t>
   </si>
@@ -200,6 +200,14 @@
   </si>
   <si>
     <t>浅了解Spring Data JPA/了解上机实验知识点（代码有注释）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:30-15:30&amp;16:00-18:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续了解Spring Data JPA的配置文件和各种借口/尝试建立表之间的关系</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -549,7 +557,7 @@
   <dimension ref="A1:Q48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32:Q32"/>
+      <selection activeCell="D45" sqref="D45:Q45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1533,9 +1541,13 @@
       <c r="A44" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B44" s="7"/>
+      <c r="B44" s="7" t="s">
+        <v>47</v>
+      </c>
       <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
+      <c r="D44" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>

--- a/201708044207XPJ/工作完成表.xlsx
+++ b/201708044207XPJ/工作完成表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="54">
   <si>
     <t>星期一</t>
   </si>
@@ -220,6 +220,14 @@
   </si>
   <si>
     <t>student的Excell文件读取并存入数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:30-15:30&amp;21:30-23:40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>构建service层，配置问题存在问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -572,7 +580,7 @@
   <dimension ref="A1:Q56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51:Q51"/>
+      <selection activeCell="D52" sqref="D52:Q52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1711,9 +1719,13 @@
       <c r="A51" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B51" s="8"/>
+      <c r="B51" s="8" t="s">
+        <v>52</v>
+      </c>
       <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
+      <c r="D51" s="8" t="s">
+        <v>53</v>
+      </c>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
@@ -1835,66 +1847,36 @@
     </row>
   </sheetData>
   <mergeCells count="105">
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:Q55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:Q56"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:Q52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:Q53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:Q54"/>
-    <mergeCell ref="A49:Q49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:Q50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:Q51"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:Q47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:Q48"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:Q44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:Q45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:Q46"/>
-    <mergeCell ref="A41:Q41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:Q42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:Q43"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D18:Q18"/>
-    <mergeCell ref="D19:Q19"/>
-    <mergeCell ref="D20:Q20"/>
-    <mergeCell ref="D21:Q21"/>
-    <mergeCell ref="D22:Q22"/>
-    <mergeCell ref="D23:Q23"/>
-    <mergeCell ref="D24:Q24"/>
-    <mergeCell ref="A17:Q17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:Q15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:Q16"/>
-    <mergeCell ref="D12:Q12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:Q13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:Q14"/>
-    <mergeCell ref="A9:Q9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:Q10"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D11:Q11"/>
-    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A33:Q33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:Q34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:Q35"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:Q39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:Q40"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:Q36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:Q37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:Q38"/>
+    <mergeCell ref="A25:Q25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:Q26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:Q27"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:Q31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:Q32"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:Q28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:Q29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:Q30"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
@@ -1910,36 +1892,66 @@
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D2:Q2"/>
     <mergeCell ref="D3:Q3"/>
-    <mergeCell ref="A25:Q25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:Q26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:Q27"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:Q31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:Q32"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:Q28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:Q29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:Q30"/>
-    <mergeCell ref="A33:Q33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:Q34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:Q35"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:Q39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:Q40"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:Q36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:Q37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:Q38"/>
+    <mergeCell ref="D12:Q12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:Q13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:Q14"/>
+    <mergeCell ref="A9:Q9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:Q10"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D11:Q11"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A17:Q17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:Q15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:Q16"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D18:Q18"/>
+    <mergeCell ref="D19:Q19"/>
+    <mergeCell ref="D20:Q20"/>
+    <mergeCell ref="D21:Q21"/>
+    <mergeCell ref="D22:Q22"/>
+    <mergeCell ref="D23:Q23"/>
+    <mergeCell ref="D24:Q24"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:Q44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:Q45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:Q46"/>
+    <mergeCell ref="A41:Q41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:Q42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:Q43"/>
+    <mergeCell ref="A49:Q49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:Q50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:Q51"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:Q47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:Q48"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:Q55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:Q56"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:Q52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:Q53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:Q54"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
